--- a/Jan-April/IndexTable.xlsx
+++ b/Jan-April/IndexTable.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkmaster/Desktop/QL4POMR/Jan-April/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF9ACD7-05B0-FA49-A837-D4DFE0B78668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="patient_history" sheetId="1" r:id="rId4"/>
+    <sheet name="IndexTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Patient ID</t>
   </si>
@@ -22,251 +31,938 @@
     <t>Case Description</t>
   </si>
   <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>Patient-1</t>
   </si>
   <si>
-    <t>Breast Cancer Case No. 1</t>
+    <t>Breast Cancer Case no. 1</t>
   </si>
   <si>
     <t>A 30-year-old female presents with bloody discharge from her left breast that she has noticed intermittently for the past month. She denies any palpable breast mass, weight loss, fevers, or night sweats. She has no medical history or family history of breast cancer. The skin around the breast and areola are normal with no rashes or lesions. No breast mass is palpable, and there is no axillary lymphadenopathy. Ultrasound did not reveal any masses.</t>
   </si>
   <si>
+    <t>Intraductal Papilloma</t>
+  </si>
+  <si>
+    <t>Nipple discharge can occur in women who are not pregnant or breastfeeding, especially during the reproductive years. Nipple discharge is not necessarily abnormal, even among postmenopausal women, although it is always abnormal in men. Spontaneous unilateral nipple discharge, regardless of color, is considered abnormal. Nipple discharge can be serous (yellow), mucinous (clear and watery), milky, sanguineous (bloody), purulent, multicolored and sticky, or serosanguineous (pink). It may occur spontaneously or only in response to breast manipulation.</t>
+  </si>
+  <si>
     <t>Patient-2</t>
   </si>
   <si>
-    <t>Cardiothoracic Case No. 5</t>
+    <t>Cardiothoracic Case no. 5</t>
   </si>
   <si>
     <t>A 65-year-old woman arrives to the ED complaining of chest pain. Her past medical history includes hypertension, atherosclerosis, and coronary artery disease. She underwent a coronary artery bypass graft (CABG) 3 weeks ago for three-vessel disease. She reports that her chest pain worsens with inspiration and lessens when leaning forward. A friction rub is heard on auscultation. ECG shows global ST elevation.</t>
   </si>
   <si>
+    <t>Acute Pericarditis</t>
+  </si>
+  <si>
+    <t>Pericarditis is inflammation of the pericardium, often with fluid accumulation in the pericardial space. Pericarditis may be caused by many disorders (eg, infection, myocardial infarction, trauma, tumors, metabolic disorders) but is often idiopathic. Symptoms include chest pain or tightness, often worsened by deep breathing. Cardiac output may be greatly reduced if cardiac tamponade or constrictive pericarditis develops. Diagnosis is based on symptoms, a friction rub, electrocardiographic changes, and evidence of pericardial fluid accumulation on x-ray or echocardiogram. Finding the cause requires further evaluation. Treatment depends on the cause, but general measures include analgesics, anti-inflammatory drugs, colchicine, and rarely surgery.</t>
+  </si>
+  <si>
     <t>Patient-3</t>
   </si>
   <si>
-    <t>Cardiothoracic Case No. 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 63-year-old woman with diabetes is recovering in the ICU after receiving a CABG for coronary artery disease. On the sixth postoperative day, she starts complaining of chest pain. Her temperature is 101.4 °F, blood pressure is 108/72 mmHg, and pulse is 125/min. On physical exam, there is drainage from her sternal wound, and there is a crunching sound heard with a stethoscope over the precordium during systole. The sternum feels somewhat unstable to palpation. Her laboratory examination is significant for an elevated white blood count (16.7 × 103/μL). </t>
+    <t>Cardiothoracic Case no. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 63-year-old woman with diabetes is recovering in the ICU after receiving a CABG for coronary artery disease. On the sixth postoperative day, she starts complaining of chest pain. Her temperature is 101.4 °F, blood pressure is 108/72 mmHg, and pulse is 125/min. On physical exam, there is drainage from her sternal wound, and there is a crunching sound heard with a stethoscope over the precordium during systole. The sternum feels somewhat unstable to palpation. Her laboratory examination is significant for an elevated white blood count (16.7___103/_L). </t>
+  </si>
+  <si>
+    <t>Acute Mediastinitis</t>
+  </si>
+  <si>
+    <t>Mediastinitis is inflammation of the mediastinum. Acute mediastinitis usually results from esophageal perforation or occurs after median sternotomy. Symptoms include severe chest pain, dyspnea, and fever. The diagnosis is suggested by chest x-ray and usually confirmed by CT. Treatment is with antibiotics (eg, clindamycin plus ceftriaxone) and sometimes surgery.</t>
   </si>
   <si>
     <t>Patient-4</t>
   </si>
   <si>
-    <t>Endocrine Case No. 4</t>
+    <t>Endocrine Case no. 4</t>
   </si>
   <si>
     <t>A 50-year-old female has been recently diagnosed with primary hyperparathyroidism. She comes in to her doctor complaining of increased bone pain in her legs. She is found to have elevated serum calcium, alkaline phosphate, and PTH. Her doctor decides to order plain films of her lower extremities. The radiographs show very thin bones with a stress fracture and bowing of both femur bones. She also has characteristic cysts with a moth-eaten appearance.</t>
   </si>
   <si>
+    <t>Osteitis Fibrosa Cystica</t>
+  </si>
+  <si>
+    <t>Hyperparathyroidism occurs when one or more of the parathyroid glands become overactive, causing elevated serum levels of parathyroid hormone and leading to hypercalcemia. Patients may be asymptomatic or have symptoms of varying severity, including chronic fatigue, body aches, difficulty sleeping, bone pain, memory loss, poor concentration, depression, and headaches. Diagnosis is with serum levels of calcium and parathyroid hormone. Surgery is done to remove the overactive gland(s).</t>
+  </si>
+  <si>
     <t>Patient-5</t>
   </si>
   <si>
-    <t>Head and Neck Case No. 11</t>
+    <t>Head and Neck Case no. 11</t>
   </si>
   <si>
     <t xml:space="preserve">A 4-year-old boy is brought to the ED by his parents for difficulty breathing. His mother reports that he developed nasal congestion and malaise 2 days ago, but over the past 12 h, he has had continuous low-pitched coughs. His temperature is 101 °F. On physical exam, he has pharyngeal erythema, cervical lymphadenopathy, and inspiratory stridor. Neck radiograph shows subglottic narrowing of the airway. He appears to be in respiratory distress and subsequently requires rapid sequence intubation. </t>
   </si>
   <si>
+    <t>Laryngotracheobronchitis</t>
+  </si>
+  <si>
+    <t>Croup is acute inflammation of the upper and lower respiratory tracts most commonly caused by parainfluenza virus type 1 infection. It is characterized by a brassy, barking cough and inspiratory stridor. Diagnosis is usually obvious clinically but can be made by anteroposterior neck x-ray. Treatment is antipyretics, hydration, nebulized racemic epinephrine, and corticosteroids. Prognosis is excellent.</t>
+  </si>
+  <si>
     <t>Patient-6</t>
   </si>
   <si>
-    <t>Hepatopancreaticobiliary Case No. 2</t>
+    <t>Hepatopancreaticobiliary Case no. 2</t>
   </si>
   <si>
     <t>A 55-year-old woman is evaluated in the emergency department for a 2-day history of severe epigastric abdominal pain, nausea, and vomiting. In reviewing her past medical history, she states she was evaluated 6 months ago for mild, but similar intermittent abdominal pain and was lost to follow-up. She does not take any medications. She has 1-2 drinks of alcohol on social occasions. On physical examination, temperature is 99.2 °F, blood pressure is 132/82 mmHg, pulse is 101/min, and respirations are 20/min. There is epigastric tenderness and RUQ tenderness. Labs are drawn and shown below.</t>
   </si>
   <si>
+    <t>Acute Pancreatitis</t>
+  </si>
+  <si>
+    <t>Acute pancreatitis is sudden inflammation of the pancreas that may be mild or life threatening but usually subsides.</t>
+  </si>
+  <si>
     <t>Patient-7</t>
   </si>
   <si>
-    <t>Hepatopancreaticobiliary Case No. 10</t>
+    <t>Hepatopancreaticobiliary Case no. 10</t>
   </si>
   <si>
     <t>A 41-year-old man with alcoholism is admitted to the ICU with a diagnosis of acute pancreatitis. He has three Ranson’s criteria on admission and two more at 48 h. He requires aggressive fluid resuscitation to maintain his blood pressure in the first 24 h, but over the next 3 days, his blood pressure stabilizes. On the third day of admission, he develops tachypnea, tachycardia, and hypoxia with oxygen saturation to 89 %. Central venous pressure is 8 mmHg. The patient is placed on nasal cannula, but the oxygen saturation remains the same. His temperature is 98.9 °F, pulse is 104/min, and blood pressure is 129/73 mmHg. A chest X-ray is obtained and shows bilateral infiltrates. Labs are drawn and shown below.</t>
   </si>
   <si>
+    <t>Adult respiratory distress syndrome</t>
+  </si>
+  <si>
+    <t>Acute respiratory distress syndrome is when you have sudden difficulty with your breathing.</t>
+  </si>
+  <si>
     <t>Patient-8</t>
   </si>
   <si>
-    <t>Orthopedic Case No. 7</t>
+    <t>Orthopedic Case no. 7</t>
   </si>
   <si>
     <t>A 45-year-old alcoholic male presents with fevers and right-hand pain. He cannot recall what happened but thinks he may have punched someone in the face in a bar fight two nights earlier. He has tried over-the-counter anti-inflammatory agents, but they have not helped decrease the pain. His temperature is 100.8°F, blood pressure is 132/88 mmHg, and pulse is 78/min. On physical exam, he has a skin break over his second phalanx-metacarpal region. He is holding his second finger in slight flexion. He has a sausage-shaped swelling of the finger, as well as flexor tendon sheath tenderness that extends the entire length of the tendon. His pain increases with passive motion of the finger.</t>
   </si>
   <si>
+    <t>Suppurative tenosynovitis due to Eikenella corrodens</t>
+  </si>
+  <si>
+    <t>The HACEK group (Haemophilus species, Aggregatibacter actinomycetemcomitans, Cardiobacterium hominis, Eikenella corrodens, Kingella kingae) includes weakly virulent, gram-negative organisms that primarily cause endocarditis. Treatment is with antibiotics.</t>
+  </si>
+  <si>
     <t>Patient-9</t>
   </si>
   <si>
-    <t>Orthopedic Case No. 16</t>
+    <t>Orthopedic Case no. 16</t>
   </si>
   <si>
     <t>An 18-year-old soccer player presents to her doctor 2 days after getting kicked in the knee during her championship game. She reports hearing a snap immediately after the injury, but her knee looked normal. The next day, she had a swollen kneecap with progressive pain. On physical exam, she has medial joint line tenderness and effusion. Her doctor notices an audible snap occurring when extending the knee from a fully flexed position while applying tibial torsion.</t>
   </si>
   <si>
+    <t>Meniscus tear</t>
+  </si>
+  <si>
+    <t>Sprains of the external (medial and lateral collateral) or internal (anterior and posterior cruciate) ligaments or injuries of the menisci may result from knee trauma. Symptoms include pain, joint effusion, instability (with severe sprains), and locking (with some meniscal injuries). Diagnosis is by physical examination and sometimes MRI. Treatment is PRICE (protection, rest, ice, compression, elevation) and, for severe injuries, casting or surgical repair.</t>
+  </si>
+  <si>
     <t>Patient-10</t>
   </si>
   <si>
-    <t>Orthopedic Case No. 18</t>
+    <t>Orthopedic Case no. 18</t>
   </si>
   <si>
     <t>A 17-year-old male comes to the emergency department for the third time over the last month due to pain in his right thigh above his knee that is particularly bothersome at night. He was previously diagnosed with growing pains. Now he has developed swelling above his right knee and states his pain is worse. On physical exam, there is a soft tissue mass that is tender to palpation. The skin overlying the mass is erythematous. An X-ray is obtained and shows a “sunburst” pattern in the distal femur.</t>
   </si>
   <si>
+    <t>Osteosarcoma</t>
+  </si>
+  <si>
+    <t>Primary malignant bone tumors are much less common than metastatic bone tumors, particularly in adults. Primary malignant bone tumors include multiple myeloma, osteosarcoma, adamantinoma, chondrosarcoma, chordoma, Ewing sarcoma of bone, fibrosarcoma and undifferentiated pleomorphic sarcoma, lymphoma of bone, and malignant giant cell tumor.</t>
+  </si>
+  <si>
     <t>Patient-11</t>
   </si>
   <si>
-    <t>Pediatric Surgery Case No. 3</t>
+    <t>Pediatric Surgery Case no. 3</t>
   </si>
   <si>
     <t>A 12-day-old male born at 33 weeks becomes lethargic and hypothermic over the course of 24 h. He is not tolerating his formula feeds, has two episodes of bilious emesis, and has three episodes of bloody diarrhea. Physical exam reveals abdominal distention, visible loops of bowel, abdominal wall erythema, and absent bowel sounds</t>
   </si>
   <si>
+    <t>Necrotizing enterocolitis</t>
+  </si>
+  <si>
+    <t>Necrotizing enterocolitis is an acquired disease, primarily of preterm or sick neonates, characterized by mucosal or even deeper intestinal necrosis. It is the most common gastrointestinal emergency among neonates. Symptoms and signs include feeding intolerance, lethargy, temperature instability, ileus, bloating, bilious emesis, hematochezia, reducing substances in the stool, apnea, and sometimes signs of sepsis. Diagnosis is clinical and is confirmed by imaging studies. Treatment is primarily supportive and includes nasogastric suction, parenteral fluids, total parenteral nutrition, antibiotics, isolation in cases of infection, and, sometimes, surgery.</t>
+  </si>
+  <si>
     <t>Patient-12</t>
   </si>
   <si>
-    <t>Pediatric Surgery Case No. 19</t>
+    <t>Pediatric Surgery Case no. 19</t>
   </si>
   <si>
     <t>A 2-week-old infant delivered at 35 weeks gestation is brought to the pediatrician by his mother who reports that he has had a harsh, barking cough and makes a high-pitched whistling sound when he inhales. He has been feeding poorly but has not had a fever. The mother also says that the patient has bouts of blue discoloration around his lips, more frequently when he is lying on his back than on his stomach. Chest x-ray is normal.</t>
   </si>
   <si>
+    <t>Tracheomalacia</t>
+  </si>
+  <si>
+    <t>Congenital tracheomalacia is weakness and floppiness of the walls of the windpipe (trachea).</t>
+  </si>
+  <si>
     <t>Patient-13</t>
   </si>
   <si>
-    <t>Skin Case No. 5</t>
+    <t>Skin Case no. 5</t>
   </si>
   <si>
     <t>A 25-year-old female lifeguard presents to her doctor to discuss a new 10 mm skin lesion that she found on her right forearm that has been growing over the last month. The lesion has a heterogeneous dark blue color, is symmetric, and has been growing vertically.</t>
   </si>
   <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Melanoma is the most serious type of skin cancer. Often the first sign of melanoma is a change in the size, shape, color, or feel of a mole. Most melanomas have a black or black-blue area. Melanoma may also appear as a new mole. It may be black, abnormal, or "ugly looking."</t>
+  </si>
+  <si>
     <t>Patient-14</t>
   </si>
   <si>
-    <t>Skin Case No. 7</t>
+    <t>Skin Case no. 7</t>
   </si>
   <si>
     <t>A 50-year-old field worker arrives to a free clinic to discuss a “sore” on his lower lip. He has had no trauma to the face. He reports that he first noticed the “sore” 6 months ago, and it has slowly gotten bigger. On physical exam, he has an ulcerated 1 cm nodule on his lower lip. There are no telangiectasias present.</t>
   </si>
   <si>
+    <t>Squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Squamous cell carcinoma is a cancer that arises from particular cells called squamous cells. Squamous cells are found in the outer layer of skin and in the mucous membranes, which are the moist tissues that line body cavities such as the airways and intestines. Head and neck squamous cell carcinoma (HNSCC) develops in the mucous membranes of the mouth, nose, and throat.</t>
+  </si>
+  <si>
     <t>Patient-15</t>
   </si>
   <si>
-    <t>Trauma Case No. 20</t>
+    <t>Trauma Case no. 20</t>
   </si>
   <si>
     <t>A 30-year-old unrestrained driver is brought in by paramedics after a high-speed MVC. In the ED, his heart rate is 110/min, blood pressure is 104/75 mmHg and decreases to 92/68 mmHg during inspiration. His tachycardia and hypotension persist despite aggressive fluid resuscitation. He appears pale, and his neck veins are distended. He has multiple bruises on his chest and abdomen. His chest x-ray is unremarkable.</t>
   </si>
   <si>
+    <t>Cardiac tamponade</t>
+  </si>
+  <si>
+    <t>Cardiac tamponade is pressure on the heart that occurs when blood or fluid builds up in the space between the heart muscle and the outer covering sac (pericardium) of the heart.</t>
+  </si>
+  <si>
     <t>Patient-16</t>
   </si>
   <si>
-    <t>Vascular Case No. 20</t>
+    <t>Vascular Case no. 20</t>
   </si>
   <si>
     <t>A 62-year-old male presents to the physician with pain in his buttocks that comes on during his evening walks with his wife, forcing him to stop and rest. He also confides in you that he has been having difficulty maintaining an erection leading to marital problems. Physical exam is significant for absent femoral and distal pulses.</t>
+  </si>
+  <si>
+    <t>Leriche syndrome</t>
+  </si>
+  <si>
+    <t>Leriche Syndrome also commonly referred to as aortoiliac occlusive disease, is caused by severe atherosclerosis affecting the distal abdominal aorta, iliac arteries, and femoro-popliteal vessels. Leriche Syndrome presents with a triad of claudication, impotence, and absence of femoral pulses.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,212 +1103,314 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="36.38"/>
-    <col customWidth="1" min="3" max="3" width="71.38"/>
-    <col customWidth="1" min="4" max="4" width="60.88"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>